--- a/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD64B95D-F5A0-459B-AEA9-B4DD8F280B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F18B2E-578A-4C7C-A006-DA0764645FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="580">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1516,6 +1516,12 @@
     <t>e_w55609623-220</t>
   </si>
   <si>
+    <t>EN_Hydro_FI6-220</t>
+  </si>
+  <si>
+    <t>e_FI6-220</t>
+  </si>
+  <si>
     <t>EN_STG8hbNREL_w53047196-400</t>
   </si>
   <si>
@@ -1796,6 +1802,12 @@
   </si>
   <si>
     <t>EN_STG4hbNREL_w55609623-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_FI6-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_FI6-220</t>
   </si>
   <si>
     <t>ELC</t>
@@ -2086,7 +2098,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1D7964-E44C-45CE-C28E-3C2BE056509B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD39D0B4-8DDA-907E-9B7A-69C13683D707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2153,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C77E8C-BCE7-0D93-ED85-EC84A0215CCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E49790D-FBD0-1D99-8557-48C047B8747F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,8 +3236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737F35DB-5F9E-49A5-ADDD-121D41BE750D}">
-  <dimension ref="A1:AI253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243159F6-9918-4933-A3F6-96C0B12353E2}">
+  <dimension ref="A1:AI258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3393,22 +3405,22 @@
         <v>213</v>
       </c>
       <c r="AB4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AC4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AD4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AE4" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="AI4" s="19" t="s">
         <v>304</v>
@@ -3464,10 +3476,10 @@
         <v>304</v>
       </c>
       <c r="AA5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AB5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AC5">
         <v>2</v>
@@ -3476,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AG5" s="23" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AH5" s="23" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="AI5" s="23" t="s">
         <v>285</v>
@@ -8776,7 +8788,7 @@
         <v>472</v>
       </c>
       <c r="W174" s="19" t="s">
-        <v>303</v>
+        <v>473</v>
       </c>
       <c r="X174" s="19" t="s">
         <v>304</v>
@@ -8787,10 +8799,10 @@
         <v>85</v>
       </c>
       <c r="V175" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="W175" s="23" t="s">
         <v>473</v>
-      </c>
-      <c r="W175" s="23" t="s">
-        <v>303</v>
       </c>
       <c r="X175" s="23" t="s">
         <v>304</v>
@@ -8801,10 +8813,10 @@
         <v>85</v>
       </c>
       <c r="V176" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="W176" s="19" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="X176" s="19" t="s">
         <v>304</v>
@@ -8815,10 +8827,10 @@
         <v>85</v>
       </c>
       <c r="V177" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W177" s="23" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="X177" s="23" t="s">
         <v>304</v>
@@ -8829,10 +8841,10 @@
         <v>85</v>
       </c>
       <c r="V178" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W178" s="19" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="X178" s="19" t="s">
         <v>304</v>
@@ -8843,10 +8855,10 @@
         <v>85</v>
       </c>
       <c r="V179" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W179" s="23" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="X179" s="23" t="s">
         <v>304</v>
@@ -8857,10 +8869,10 @@
         <v>85</v>
       </c>
       <c r="V180" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W180" s="19" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="X180" s="19" t="s">
         <v>304</v>
@@ -8871,10 +8883,10 @@
         <v>85</v>
       </c>
       <c r="V181" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W181" s="23" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X181" s="23" t="s">
         <v>304</v>
@@ -8885,10 +8897,10 @@
         <v>85</v>
       </c>
       <c r="V182" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W182" s="19" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="X182" s="19" t="s">
         <v>304</v>
@@ -8899,10 +8911,10 @@
         <v>85</v>
       </c>
       <c r="V183" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W183" s="23" t="s">
-        <v>457</v>
+        <v>293</v>
       </c>
       <c r="X183" s="23" t="s">
         <v>304</v>
@@ -8913,10 +8925,10 @@
         <v>85</v>
       </c>
       <c r="V184" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W184" s="19" t="s">
-        <v>483</v>
+        <v>293</v>
       </c>
       <c r="X184" s="19" t="s">
         <v>304</v>
@@ -8927,10 +8939,10 @@
         <v>85</v>
       </c>
       <c r="V185" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="W185" s="23" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="X185" s="23" t="s">
         <v>304</v>
@@ -8941,10 +8953,10 @@
         <v>85</v>
       </c>
       <c r="V186" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W186" s="19" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="X186" s="19" t="s">
         <v>304</v>
@@ -8955,10 +8967,10 @@
         <v>85</v>
       </c>
       <c r="V187" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="W187" s="23" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="X187" s="23" t="s">
         <v>304</v>
@@ -8969,10 +8981,10 @@
         <v>85</v>
       </c>
       <c r="V188" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W188" s="19" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="X188" s="19" t="s">
         <v>304</v>
@@ -8983,10 +8995,10 @@
         <v>85</v>
       </c>
       <c r="V189" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="W189" s="23" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="X189" s="23" t="s">
         <v>304</v>
@@ -8997,10 +9009,10 @@
         <v>85</v>
       </c>
       <c r="V190" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W190" s="19" t="s">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="X190" s="19" t="s">
         <v>304</v>
@@ -9011,10 +9023,10 @@
         <v>85</v>
       </c>
       <c r="V191" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="W191" s="23" t="s">
-        <v>490</v>
+        <v>292</v>
       </c>
       <c r="X191" s="23" t="s">
         <v>304</v>
@@ -9025,10 +9037,10 @@
         <v>85</v>
       </c>
       <c r="V192" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="W192" s="19" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="X192" s="19" t="s">
         <v>304</v>
@@ -9039,10 +9051,10 @@
         <v>85</v>
       </c>
       <c r="V193" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W193" s="23" t="s">
-        <v>286</v>
+        <v>492</v>
       </c>
       <c r="X193" s="23" t="s">
         <v>304</v>
@@ -9053,10 +9065,10 @@
         <v>85</v>
       </c>
       <c r="V194" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W194" s="19" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="X194" s="19" t="s">
         <v>304</v>
@@ -9067,10 +9079,10 @@
         <v>85</v>
       </c>
       <c r="V195" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W195" s="23" t="s">
-        <v>455</v>
+        <v>286</v>
       </c>
       <c r="X195" s="23" t="s">
         <v>304</v>
@@ -9081,10 +9093,10 @@
         <v>85</v>
       </c>
       <c r="V196" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W196" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="X196" s="19" t="s">
         <v>304</v>
@@ -9095,10 +9107,10 @@
         <v>85</v>
       </c>
       <c r="V197" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W197" s="23" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="X197" s="23" t="s">
         <v>304</v>
@@ -9109,10 +9121,10 @@
         <v>85</v>
       </c>
       <c r="V198" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W198" s="19" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="X198" s="19" t="s">
         <v>304</v>
@@ -9123,10 +9135,10 @@
         <v>85</v>
       </c>
       <c r="V199" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W199" s="23" t="s">
-        <v>499</v>
+        <v>345</v>
       </c>
       <c r="X199" s="23" t="s">
         <v>304</v>
@@ -9137,10 +9149,10 @@
         <v>85</v>
       </c>
       <c r="V200" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W200" s="19" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="X200" s="19" t="s">
         <v>304</v>
@@ -9151,10 +9163,10 @@
         <v>85</v>
       </c>
       <c r="V201" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W201" s="23" t="s">
-        <v>359</v>
+        <v>501</v>
       </c>
       <c r="X201" s="23" t="s">
         <v>304</v>
@@ -9165,10 +9177,10 @@
         <v>85</v>
       </c>
       <c r="V202" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W202" s="19" t="s">
-        <v>289</v>
+        <v>501</v>
       </c>
       <c r="X202" s="19" t="s">
         <v>304</v>
@@ -9179,10 +9191,10 @@
         <v>85</v>
       </c>
       <c r="V203" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W203" s="23" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="X203" s="23" t="s">
         <v>304</v>
@@ -9193,10 +9205,10 @@
         <v>85</v>
       </c>
       <c r="V204" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W204" s="19" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="X204" s="19" t="s">
         <v>304</v>
@@ -9207,10 +9219,10 @@
         <v>85</v>
       </c>
       <c r="V205" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W205" s="23" t="s">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="X205" s="23" t="s">
         <v>304</v>
@@ -9221,10 +9233,10 @@
         <v>85</v>
       </c>
       <c r="V206" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W206" s="19" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="X206" s="19" t="s">
         <v>304</v>
@@ -9235,10 +9247,10 @@
         <v>85</v>
       </c>
       <c r="V207" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W207" s="23" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="X207" s="23" t="s">
         <v>304</v>
@@ -9249,10 +9261,10 @@
         <v>85</v>
       </c>
       <c r="V208" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W208" s="19" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="X208" s="19" t="s">
         <v>304</v>
@@ -9263,10 +9275,10 @@
         <v>85</v>
       </c>
       <c r="V209" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W209" s="23" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="X209" s="23" t="s">
         <v>304</v>
@@ -9277,10 +9289,10 @@
         <v>85</v>
       </c>
       <c r="V210" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W210" s="19" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="X210" s="19" t="s">
         <v>304</v>
@@ -9291,10 +9303,10 @@
         <v>85</v>
       </c>
       <c r="V211" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W211" s="23" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="X211" s="23" t="s">
         <v>304</v>
@@ -9305,10 +9317,10 @@
         <v>85</v>
       </c>
       <c r="V212" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W212" s="19" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="X212" s="19" t="s">
         <v>304</v>
@@ -9319,10 +9331,10 @@
         <v>85</v>
       </c>
       <c r="V213" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W213" s="23" t="s">
-        <v>469</v>
+        <v>297</v>
       </c>
       <c r="X213" s="23" t="s">
         <v>304</v>
@@ -9333,10 +9345,10 @@
         <v>85</v>
       </c>
       <c r="V214" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W214" s="19" t="s">
-        <v>516</v>
+        <v>297</v>
       </c>
       <c r="X214" s="19" t="s">
         <v>304</v>
@@ -9347,10 +9359,10 @@
         <v>85</v>
       </c>
       <c r="V215" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W215" s="23" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="X215" s="23" t="s">
         <v>304</v>
@@ -9361,10 +9373,10 @@
         <v>85</v>
       </c>
       <c r="V216" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W216" s="19" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="X216" s="19" t="s">
         <v>304</v>
@@ -9375,10 +9387,10 @@
         <v>85</v>
       </c>
       <c r="V217" s="23" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="W217" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X217" s="23" t="s">
         <v>304</v>
@@ -9389,10 +9401,10 @@
         <v>85</v>
       </c>
       <c r="V218" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W218" s="19" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X218" s="19" t="s">
         <v>304</v>
@@ -9403,10 +9415,10 @@
         <v>85</v>
       </c>
       <c r="V219" s="23" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W219" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X219" s="23" t="s">
         <v>304</v>
@@ -9417,10 +9429,10 @@
         <v>85</v>
       </c>
       <c r="V220" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W220" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="X220" s="19" t="s">
         <v>304</v>
@@ -9431,10 +9443,10 @@
         <v>85</v>
       </c>
       <c r="V221" s="23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="W221" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="X221" s="23" t="s">
         <v>304</v>
@@ -9445,10 +9457,10 @@
         <v>85</v>
       </c>
       <c r="V222" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W222" s="19" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="X222" s="19" t="s">
         <v>304</v>
@@ -9459,10 +9471,10 @@
         <v>85</v>
       </c>
       <c r="V223" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="W223" s="23" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="X223" s="23" t="s">
         <v>304</v>
@@ -9473,10 +9485,10 @@
         <v>85</v>
       </c>
       <c r="V224" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W224" s="19" t="s">
-        <v>299</v>
+        <v>527</v>
       </c>
       <c r="X224" s="19" t="s">
         <v>304</v>
@@ -9487,10 +9499,10 @@
         <v>85</v>
       </c>
       <c r="V225" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W225" s="23" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="X225" s="23" t="s">
         <v>304</v>
@@ -9501,10 +9513,10 @@
         <v>85</v>
       </c>
       <c r="V226" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W226" s="19" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="X226" s="19" t="s">
         <v>304</v>
@@ -9515,10 +9527,10 @@
         <v>85</v>
       </c>
       <c r="V227" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W227" s="23" t="s">
-        <v>532</v>
+        <v>299</v>
       </c>
       <c r="X227" s="23" t="s">
         <v>304</v>
@@ -9529,10 +9541,10 @@
         <v>85</v>
       </c>
       <c r="V228" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W228" s="19" t="s">
-        <v>535</v>
+        <v>299</v>
       </c>
       <c r="X228" s="19" t="s">
         <v>304</v>
@@ -9543,10 +9555,10 @@
         <v>85</v>
       </c>
       <c r="V229" s="23" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="W229" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X229" s="23" t="s">
         <v>304</v>
@@ -9557,10 +9569,10 @@
         <v>85</v>
       </c>
       <c r="V230" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W230" s="19" t="s">
-        <v>291</v>
+        <v>534</v>
       </c>
       <c r="X230" s="19" t="s">
         <v>304</v>
@@ -9571,10 +9583,10 @@
         <v>85</v>
       </c>
       <c r="V231" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W231" s="23" t="s">
-        <v>291</v>
+        <v>537</v>
       </c>
       <c r="X231" s="23" t="s">
         <v>304</v>
@@ -9585,10 +9597,10 @@
         <v>85</v>
       </c>
       <c r="V232" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W232" s="19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="X232" s="19" t="s">
         <v>304</v>
@@ -9599,10 +9611,10 @@
         <v>85</v>
       </c>
       <c r="V233" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W233" s="23" t="s">
-        <v>540</v>
+        <v>291</v>
       </c>
       <c r="X233" s="23" t="s">
         <v>304</v>
@@ -9613,10 +9625,10 @@
         <v>85</v>
       </c>
       <c r="V234" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W234" s="19" t="s">
-        <v>543</v>
+        <v>291</v>
       </c>
       <c r="X234" s="19" t="s">
         <v>304</v>
@@ -9627,10 +9639,10 @@
         <v>85</v>
       </c>
       <c r="V235" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="W235" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="X235" s="23" t="s">
         <v>304</v>
@@ -9641,10 +9653,10 @@
         <v>85</v>
       </c>
       <c r="V236" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W236" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="X236" s="19" t="s">
         <v>304</v>
@@ -9655,10 +9667,10 @@
         <v>85</v>
       </c>
       <c r="V237" s="23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="W237" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X237" s="23" t="s">
         <v>304</v>
@@ -9669,10 +9681,10 @@
         <v>85</v>
       </c>
       <c r="V238" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W238" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="X238" s="19" t="s">
         <v>304</v>
@@ -9683,10 +9695,10 @@
         <v>85</v>
       </c>
       <c r="V239" s="23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="W239" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X239" s="23" t="s">
         <v>304</v>
@@ -9697,10 +9709,10 @@
         <v>85</v>
       </c>
       <c r="V240" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W240" s="19" t="s">
-        <v>298</v>
+        <v>548</v>
       </c>
       <c r="X240" s="19" t="s">
         <v>304</v>
@@ -9711,10 +9723,10 @@
         <v>85</v>
       </c>
       <c r="V241" s="23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W241" s="23" t="s">
-        <v>298</v>
+        <v>551</v>
       </c>
       <c r="X241" s="23" t="s">
         <v>304</v>
@@ -9725,10 +9737,10 @@
         <v>85</v>
       </c>
       <c r="V242" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W242" s="19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="X242" s="19" t="s">
         <v>304</v>
@@ -9739,10 +9751,10 @@
         <v>85</v>
       </c>
       <c r="V243" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W243" s="23" t="s">
-        <v>554</v>
+        <v>298</v>
       </c>
       <c r="X243" s="23" t="s">
         <v>304</v>
@@ -9753,10 +9765,10 @@
         <v>85</v>
       </c>
       <c r="V244" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W244" s="19" t="s">
-        <v>459</v>
+        <v>298</v>
       </c>
       <c r="X244" s="19" t="s">
         <v>304</v>
@@ -9767,10 +9779,10 @@
         <v>85</v>
       </c>
       <c r="V245" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W245" s="23" t="s">
-        <v>459</v>
+        <v>556</v>
       </c>
       <c r="X245" s="23" t="s">
         <v>304</v>
@@ -9781,10 +9793,10 @@
         <v>85</v>
       </c>
       <c r="V246" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W246" s="19" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="X246" s="19" t="s">
         <v>304</v>
@@ -9795,10 +9807,10 @@
         <v>85</v>
       </c>
       <c r="V247" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W247" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="X247" s="23" t="s">
         <v>304</v>
@@ -9809,10 +9821,10 @@
         <v>85</v>
       </c>
       <c r="V248" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W248" s="19" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="X248" s="19" t="s">
         <v>304</v>
@@ -9823,10 +9835,10 @@
         <v>85</v>
       </c>
       <c r="V249" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W249" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="X249" s="23" t="s">
         <v>304</v>
@@ -9837,10 +9849,10 @@
         <v>85</v>
       </c>
       <c r="V250" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W250" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="X250" s="19" t="s">
         <v>304</v>
@@ -9851,10 +9863,10 @@
         <v>85</v>
       </c>
       <c r="V251" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W251" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X251" s="23" t="s">
         <v>304</v>
@@ -9865,10 +9877,10 @@
         <v>85</v>
       </c>
       <c r="V252" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W252" s="19" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="X252" s="19" t="s">
         <v>304</v>
@@ -9879,12 +9891,82 @@
         <v>85</v>
       </c>
       <c r="V253" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="W253" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="X253" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="254" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U254" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V254" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="W253" s="23" t="s">
+      <c r="W254" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="X254" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="255" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U255" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V255" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="W255" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="X253" s="23" t="s">
+      <c r="X255" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U256" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V256" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="W256" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="X256" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="257" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U257" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V257" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="W257" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="X257" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="258" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U258" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V258" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="W258" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="X258" s="19" t="s">
         <v>304</v>
       </c>
     </row>

--- a/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F18B2E-578A-4C7C-A006-DA0764645FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6854C73-2C8A-4A20-B27F-5F48A9DA0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,7 +2098,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD39D0B4-8DDA-907E-9B7A-69C13683D707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3187B09D-AD1F-5487-12BE-E654C352A95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2153,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E49790D-FBD0-1D99-8557-48C047B8747F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5768A780-8633-B744-AA0B-BA7D2B3185B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243159F6-9918-4933-A3F6-96C0B12353E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C9B4F9-7F53-40E4-B845-66F0748DD1D4}">
   <dimension ref="A1:AI258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6854C73-2C8A-4A20-B27F-5F48A9DA0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FE8923-52DE-4483-9ACC-6F9EC49A5CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,7 +2098,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3187B09D-AD1F-5487-12BE-E654C352A95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB329C9F-309A-99C9-B262-291BA17A1FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2153,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5768A780-8633-B744-AA0B-BA7D2B3185B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F590EFEF-D837-8B77-218A-0AE6AC0AFFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C9B4F9-7F53-40E4-B845-66F0748DD1D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADCCD00-831D-4779-A66D-FA02F4DA19C4}">
   <dimension ref="A1:AI258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FE8923-52DE-4483-9ACC-6F9EC49A5CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D6F2C3-7DCF-488D-98EA-910A564CB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,7 +2098,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB329C9F-309A-99C9-B262-291BA17A1FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F938CD14-2394-D45B-148B-C66104CCEE7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2153,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F590EFEF-D837-8B77-218A-0AE6AC0AFFF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C0891D-F18C-A958-D841-6D19792A8031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADCCD00-831D-4779-A66D-FA02F4DA19C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B561E-550A-4E1E-86A9-471D16D1DD40}">
   <dimension ref="A1:AI258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
